--- a/python_work/pythonPro/검색결과.xlsx
+++ b/python_work/pythonPro/검색결과.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,951 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>한성컴퓨터 데스크탑 프리워커 F2700 (i7-10700), WIN 미포함, RAM 8GB, SSD 240GB</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>618380</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/1985447196?itemId=3378592947&amp;vendorItemId=71365273067</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>바른컴퓨터 게이밍 고사양 컴퓨터 풀세트 모니터포함 PC 롤 서든어택 배틀그라운드 피파 사무용, 기본형, 풀세트-F12(바른컴퓨터)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>748000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(18)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6177343298?itemId=12100488905&amp;vendorItemId=79372295145&amp;sourceType=srp_product_ads&amp;clickEventId=692cba65-bba0-4920-ae95-f0e41cffe4f4&amp;korePlacement=15&amp;koreSubPlacement=5&amp;clickEventId=692cba65-bba0-4920-ae95-f0e41cffe4f4&amp;korePlacement=15&amp;koreSubPlacement=5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC온스튜디오 게이밍 컴퓨터 조립 PC 디아블로 롤 피파 오딘 오버워치 배그 게임용 본체, 07. SSD 500GB 변경 + RAM 16GB 변경, 게이밍 - 04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>873000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(1511)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/1093862116?itemId=3636567329&amp;vendorItemId=71622109231&amp;sourceType=srp_product_ads&amp;clickEventId=af1a2dc2-1a7e-4e26-93a3-201a5cef7ea9&amp;korePlacement=15&amp;koreSubPlacement=9&amp;clickEventId=af1a2dc2-1a7e-4e26-93a3-201a5cef7ea9&amp;korePlacement=15&amp;koreSubPlacement=9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>바른 컴퓨터 게이밍PC 풀세트 롤 배그 오버워치 피파 디아블로 사무용PC 데스크탑 모니터선택 윈도우10, 모니터없음, 바른게임컴B05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1039000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>(961)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6185792682?itemId=5406809630&amp;vendorItemId=72706770668&amp;sourceType=srp_product_ads&amp;clickEventId=52ef4582-08bf-4f21-b0a6-4f0dcf2a0a96&amp;korePlacement=15&amp;koreSubPlacement=1&amp;clickEventId=52ef4582-08bf-4f21-b0a6-4f0dcf2a0a96&amp;korePlacement=15&amp;koreSubPlacement=1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>포유컴퓨터 게이밍 에디션 10 조립PC 랜덤발송 (라이젠7-5700G WIN10 Home RAM 16GB NVMe 500GB) + 게이밍 기계식 키보드 + 게이밍 장패드 + 5구형 멀티탭 + USB 32GB, 기본형</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1091000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6096626225?itemId=11397277188&amp;vendorItemId=78673290950</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>대한컴퓨터샵 가장빠른PC 인텔 11세대 i9 11900출시!!고급형 할인판매중!!게이밍조립컴퓨터PC데스크탑 노마드PC, 11세대 i9 11900 최고빠른PC첫출시!!, 노마드 01)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1119190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>(7)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5881910251?itemId=10319391957&amp;vendorItemId=71317213074&amp;sourceType=srp_product_ads&amp;clickEventId=df02df90-e8ab-42a7-9df9-b00ee4dd5d76&amp;korePlacement=15&amp;koreSubPlacement=11&amp;clickEventId=df02df90-e8ab-42a7-9df9-b00ee4dd5d76&amp;korePlacement=15&amp;koreSubPlacement=11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Apple 2020 맥북 에어 13, 스페이스 그레이, M1, 256GB, 8GB, MAC OS, MGN63KH/A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1123240</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>(5222)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/4322481134?itemId=5033261049&amp;vendorItemId=72343055641</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>바른 컴퓨터 게이밍PC 풀세트 롤 배그 오버워치 피파 디아블로 사무용PC 데스크탑 모니터선택 윈도우10, 24인치, 바른게임컴B05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1199000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>(934)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/4502447375?itemId=5406809642&amp;vendorItemId=72706770840&amp;sourceType=srp_product_ads&amp;clickEventId=5c3bfd11-30aa-41e4-9533-a20fb65f80f6&amp;korePlacement=15&amp;koreSubPlacement=6&amp;clickEventId=5c3bfd11-30aa-41e4-9533-a20fb65f80f6&amp;korePlacement=15&amp;koreSubPlacement=6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Apple 2020년 맥 미니 (M1 칩셋 8코어 CPU 8코어 GPU), 16GB, SSD 512GB</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1418000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(622)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/4322481223?itemId=5504842484&amp;vendorItemId=72804430054</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>포유컴퓨터 조립PC i04F260_2 (i5-11400F WIN미포함 RAM 16GB NVMe 500GB RTX2060), 기본형, 인텔11세대 i5-11400F+16G+M.2 500GB+RTX2060</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1519000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(7)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5347672392?itemId=7856529437&amp;vendorItemId=75146191451</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>컴맹닷컴 게이밍 조립PC CM954FC-166SAP (i5-9400F), WIN10 Pro, RAM 16GB, SATA 240GB+HDD 1TB</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1646000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>(47)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/71908625?itemId=239711426&amp;vendorItemId=70654129280</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>컴맹닷컴 조립PC CM1054FC-36LX (i5-10400F WIN미포함 RAM 16GB SSD 500GB RTX 3060), 기본형</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1656000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6079692800?itemId=11263687921&amp;vendorItemId=78540619167</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Apple 2021 아이맥 24, 실버, M1 8-Core, 8GB, SSD 256GB, Apple M1 7 core, 미지원, Retina 4.5K</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1690000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>(758)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5392850863?itemId=8047070083&amp;vendorItemId=75335636485</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>한성컴퓨터 게이밍 데스크탑 화이트 TFG AX5506 (라이젠5-5600X WIN미포함 RAM 16GB SSD 512GB Geforce RTX 3060), 기본형</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1798000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>평점 없음</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>평점 없음</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6164229257?itemId=11983459068&amp;vendorItemId=79255928115</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Apple 2021 아이맥 24, 핑크, M1 8-Core, 8GB, SSD 256GB, Apple M1 8 core, Gigabit Ethernet, Retina 4.5K</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1859000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>(758)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5392850863?itemId=8047070369&amp;vendorItemId=75335636783</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Apple 2021 아이맥 24, 퍼플, M1 8-Core, 8GB, SSD 256GB, Apple M1 8 core, Gigabit Ethernet, Retina 4.5K</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1900200</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(758)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5392850863?itemId=8734851857&amp;vendorItemId=76021845545</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>한성컴퓨터 게이밍 데스크탑 블랙 TFG AX5506i (라이젠5-5600X WIN미포함 RAM 16GB SSD 512GB Geforce RTX 3060Ti), 기본형</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1968000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6164229183?itemId=11983458697&amp;vendorItemId=79255927752</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>포유컴퓨터 게이밍 에디션 13 조립PC 랜덤발송 (i7-11700F WIN10 Home RAM 16GB NVMe 500GB + RTX3060) + 게이밍 기계식 키보드 + 게이밍 장패드 + 5구형 멀티탭 + USB 32GB, 기본형</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1971000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6096626168?itemId=11397276882&amp;vendorItemId=78673290602</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HP Pavilion 게이밍 데스크탑 TG01-2004kl AMD라이젠5 5600G 지포스RTX 3060Ti DDR4 RAM 윈도우10프로 탑재, 16GB, 3.5인치 6TB HDD로 교체, Win10Pro 탑재</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1979000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6056966448?itemId=11122397647&amp;vendorItemId=78401077898</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>포유컴퓨터 게이밍 에디션 15 조립PC 랜덤발송 (i7-11700F WIN10 Home RAM 16GB NVMe 500GB + RTX3060Ti) + 게이밍 기계식 키보드 + 게이밍 장패드 + 5구형 멀티탭 + USB 32GB, 기본형</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2052000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6096626272?itemId=11397277575&amp;vendorItemId=78673291325</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Apple 2021 아이맥 24, 오렌지, M1 8-Core, 16GB, SSD 256GB, Apple M1 8 core, Gigabit Ethernet, Retina 4.5K</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2113000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>(758)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5392850863?itemId=8734852138&amp;vendorItemId=76021845764</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Apple 2019 아이맥 27, 실버, 코어i5 8세대, 8GB, HDD 1TB + SSD 32GB, AMD 라데온 Pro 570X, Gigabit Ethernet, Retina 5K</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2193200</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>(197)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/210192074?itemId=626000043&amp;vendorItemId=4643939845</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Apple 2021 아이맥 24, 퍼플, M1 8-Core, 16GB, SSD 512GB, Apple M1 8 core, Gigabit Ethernet, Retina 4.5K</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2331200</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(758)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5392850863?itemId=8734851747&amp;vendorItemId=76021845461</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Apple 2020 아이맥 21, 실버, 코어i7 8세대, 16GB, SSD 256GB, AMD 라데온 Pro 560X, Gigabit Ethernet, Retina 4K</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2430400</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>(84)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/1960923504?itemId=3332729087&amp;vendorItemId=71319544636</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Apple 2021 아이맥 24, 실버, M1 8-Core, 16GB, SSD 512GB, Apple M1 8 core, Gigabit Ethernet, Retina 4.5K</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2480000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>(758)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5392850863?itemId=8734852165&amp;vendorItemId=76021845810&amp;pickType=COU_PICK</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Apple 2021 아이맥 24, 그린, M1 8-Core, 16GB, SSD 512GB, Apple M1 8 core, Gigabit Ethernet, Retina 4.5K</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2480000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>(758)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5392850863?itemId=8734852168&amp;vendorItemId=76021845821</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Apple 2021 아이맥 24, 옐로, M1 8-Core, 16GB, SSD 512GB, Apple M1 8 core, Gigabit Ethernet, Retina 4.5K</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2480000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>(758)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5392850863?itemId=8734852157&amp;vendorItemId=76021845787</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Apple 2021 맥북프로 14, 스페이스그레이, M1 Pro 8코어, GPU 14코어, 16GB, 512GB</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2690000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>(32)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6148872639?itemId=11731448540&amp;vendorItemId=79005406093</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>델 인스피론 3891 데스크탑 DNDT3891-WH06KR (i7-11700F WIN10 Home RAM 16GB NVMe 512GB GTX1660 SUPER) + 키보드 + 마우스, 기본형</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3058000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5643519820?itemId=9211584950&amp;vendorItemId=79365914961</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>컴맹닷컴 고성능 3D 게이밍 영상편집 게임방송용 조립PC CMA58XC-38LH (라이젠7-5800X WIN10 Home RAM 16GB NVMe 500GB RTX 3080 LHR), 기본형</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3097000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/6064245554?itemId=11165534745&amp;vendorItemId=78443633567</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>컴맹닷컴 게이밍 데스크탑 CMA56XC-38LH (AMD R5-5600X), WIN10 Home, RAM 16GB, SSD 500GB</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3226000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/4574594701?itemId=5596239554&amp;vendorItemId=72895501728</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>컴맹닷컴 고성능 게이밍 데스크탑 CMA56XC-37LH (라이젠 5600X WIN10 Home RAM 16GB SSD 500GB RTX3070), 기본형</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3357000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>(6)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/4574594795?itemId=5596239775&amp;vendorItemId=72895501909</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>한성컴퓨터 게이밍 데스크탑 화이트 TFG DX5708RXT (라이젠7-5800X WIN미포함 RAM 32GB NVMe 512GB RTX 3080), 기본형</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3368000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>(7)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5767756387?itemId=9789310789&amp;vendorItemId=77072910150</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>로켓추천PC Gamma intel No 10. 화이트 조립컴퓨터 (i9-11900K WIN미포함 RAM 16GB NVMe 512GB RTX3090), 기본형</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5399000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/4564807150?itemId=5566864083&amp;vendorItemId=72866228717</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>한성컴퓨터 게이밍 데스크탑 화이트 TFG DX5959RXT (라이젠9-5950X WIN미포함 RAM 16GB NVMe 512GB RTX 3090), 기본형</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5498000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.coupang.com/vp/products/5767756607?itemId=9789311878&amp;vendorItemId=77072910919</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
